--- a/m5_distance/m5_distances_literature.xlsx
+++ b/m5_distance/m5_distances_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmcewing/Documents/GitHub/dsw-notebooks/m5_distance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C8497C-3D53-9B40-921F-1F7099B94FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E3B594-6B92-E548-946E-8925FC6DD8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19540" yWindow="1400" windowWidth="29680" windowHeight="30800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19540" yWindow="500" windowWidth="29680" windowHeight="30800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m5_distances_literature" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1574,7 +1576,7 @@
         <v>6.69</v>
       </c>
       <c r="H40">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
